--- a/docss/trend/spain/E_totalEERR.xlsx
+++ b/docss/trend/spain/E_totalEERR.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\BBDD_IC3\comarcas\T-EERR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cap1_TotalEERR_Comarcas" sheetId="1" r:id="rId1"/>
     <sheet name="Tasa_anual_Cap1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1036,7 +1036,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1050,6 +1050,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12798,10 +12799,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12809,7 +12810,7 @@
     <col min="2" max="4" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>311</v>
       </c>
@@ -12823,215 +12824,260 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1999</v>
       </c>
-      <c r="B2" s="1">
-        <v>10.187871615399294</v>
-      </c>
-      <c r="C2" s="1">
-        <v>11.559470567513776</v>
-      </c>
-      <c r="D2" s="1">
-        <v>9.0472927302687527</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3">
+        <v>10.188000000000001</v>
+      </c>
+      <c r="C2" s="3">
+        <v>11.558999999999999</v>
+      </c>
+      <c r="D2" s="3">
+        <v>9.0470000000000006</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2000</v>
       </c>
-      <c r="B3" s="1">
-        <v>9.7958850156251955</v>
-      </c>
-      <c r="C3" s="1">
-        <v>11.183002025680652</v>
-      </c>
-      <c r="D3" s="1">
-        <v>8.5877414330303434</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>9.7959999999999994</v>
+      </c>
+      <c r="C3" s="3">
+        <v>11.183</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8.5879999999999992</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2001</v>
       </c>
-      <c r="B4" s="1">
-        <v>9.1098186858529662</v>
-      </c>
-      <c r="C4" s="1">
-        <v>10.537564406934905</v>
-      </c>
-      <c r="D4" s="1">
-        <v>7.8699003013703503</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>9.11</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10.538</v>
+      </c>
+      <c r="D4" s="3">
+        <v>7.87</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2002</v>
       </c>
-      <c r="B5" s="1">
-        <v>9.5676191996651738</v>
-      </c>
-      <c r="C5" s="1">
-        <v>10.650980300649932</v>
-      </c>
-      <c r="D5" s="1">
-        <v>8.6071513164196727</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>9.5679999999999996</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10.651</v>
+      </c>
+      <c r="D5" s="3">
+        <v>8.6069999999999993</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2003</v>
       </c>
-      <c r="B6" s="1">
-        <v>9.663673084603662</v>
-      </c>
-      <c r="C6" s="1">
-        <v>10.365348817960134</v>
-      </c>
-      <c r="D6" s="1">
-        <v>9.0917954835709907</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>9.6639999999999997</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10.365</v>
+      </c>
+      <c r="D6" s="3">
+        <v>9.0920000000000005</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2004</v>
       </c>
-      <c r="B7" s="1">
-        <v>9.0904248264883218</v>
-      </c>
-      <c r="C7" s="1">
-        <v>10.472360845701568</v>
-      </c>
-      <c r="D7" s="1">
-        <v>7.9178658106657362</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>9.09</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10.472</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7.9180000000000001</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2005</v>
       </c>
-      <c r="B8" s="1">
-        <v>8.9838296575145904</v>
-      </c>
-      <c r="C8" s="1">
-        <v>9.8577018655689308</v>
-      </c>
-      <c r="D8" s="1">
-        <v>8.2021353748089449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>8.984</v>
+      </c>
+      <c r="C8" s="3">
+        <v>9.8580000000000005</v>
+      </c>
+      <c r="D8" s="3">
+        <v>8.202</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2006</v>
       </c>
-      <c r="B9" s="1">
-        <v>8.578571707793925</v>
-      </c>
-      <c r="C9" s="1">
-        <v>9.7597016156287903</v>
-      </c>
-      <c r="D9" s="1">
-        <v>7.5594795993870028</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>8.5790000000000006</v>
+      </c>
+      <c r="C9" s="3">
+        <v>9.76</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7.5590000000000002</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2007</v>
       </c>
-      <c r="B10" s="1">
-        <v>8.6219363362032642</v>
-      </c>
-      <c r="C10" s="1">
-        <v>9.8165804030301942</v>
-      </c>
-      <c r="D10" s="1">
-        <v>7.5644660212784887</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8.6219999999999999</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9.8170000000000002</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7.5640000000000001</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2008</v>
       </c>
-      <c r="B11" s="1">
-        <v>8.7681639234343685</v>
-      </c>
-      <c r="C11" s="1">
-        <v>9.7105624588673276</v>
-      </c>
-      <c r="D11" s="1">
-        <v>8.0121597635112618</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>8.7680000000000007</v>
+      </c>
+      <c r="C11" s="3">
+        <v>9.7110000000000003</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8.0120000000000005</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2009</v>
       </c>
-      <c r="B12" s="1">
-        <v>8.5976414995905657</v>
-      </c>
-      <c r="C12" s="1">
-        <v>9.437475681869719</v>
-      </c>
-      <c r="D12" s="1">
-        <v>7.9432387252874399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>8.5980000000000008</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9.4369999999999994</v>
+      </c>
+      <c r="D12" s="3">
+        <v>7.9429999999999996</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2010</v>
       </c>
-      <c r="B13" s="1">
-        <v>8.7989860706188754</v>
-      </c>
-      <c r="C13" s="1">
-        <v>9.9494350497698179</v>
-      </c>
-      <c r="D13" s="1">
-        <v>7.8524312225625206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>8.7989999999999995</v>
+      </c>
+      <c r="C13" s="3">
+        <v>9.9489999999999998</v>
+      </c>
+      <c r="D13" s="3">
+        <v>7.8520000000000003</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2011</v>
       </c>
-      <c r="B14" s="1">
-        <v>8.9401672084741008</v>
-      </c>
-      <c r="C14" s="1">
-        <v>10.136119668632157</v>
-      </c>
-      <c r="D14" s="1">
-        <v>7.9772298072947772</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>8.94</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10.135999999999999</v>
+      </c>
+      <c r="D14" s="3">
+        <v>7.9770000000000003</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2012</v>
       </c>
-      <c r="B15" s="1">
-        <v>8.7922031040176112</v>
-      </c>
-      <c r="C15" s="1">
-        <v>9.8849575906532134</v>
-      </c>
-      <c r="D15" s="1">
-        <v>7.8730529837195951</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>8.7919999999999998</v>
+      </c>
+      <c r="C15" s="3">
+        <v>9.8849999999999998</v>
+      </c>
+      <c r="D15" s="3">
+        <v>7.8730000000000002</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2013</v>
       </c>
-      <c r="B16" s="1">
-        <v>8.5420359869943105</v>
-      </c>
-      <c r="C16" s="1">
-        <v>9.6159386171274868</v>
-      </c>
-      <c r="D16" s="1">
-        <v>7.670331542416057</v>
-      </c>
+      <c r="B16" s="3">
+        <v>8.5419999999999998</v>
+      </c>
+      <c r="C16" s="3">
+        <v>9.6159999999999997</v>
+      </c>
+      <c r="D16" s="3">
+        <v>7.67</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
